--- a/PowerAutomate_Flow/ConvertExcelTableIntoCrearCollectStatement/書籍一覧.xlsx
+++ b/PowerAutomate_Flow/ConvertExcelTableIntoCrearCollectStatement/書籍一覧.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\深井　亘\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{21039526-234D-4996-BBC3-CAB4456AC1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B63A00-F378-420F-828D-8AF1461B2B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="書籍一覧" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>書籍名</t>
   </si>
@@ -45,11 +57,20 @@
   <si>
     <t>数学ガールの物理ノート／ニュートン力学</t>
   </si>
+  <si>
+    <t>2022/03/10</t>
+  </si>
+  <si>
+    <t>2021/11/12</t>
+  </si>
+  <si>
+    <t>2021/07/15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,10 +661,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -693,10 +714,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,13 +733,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="書籍名"/>
-    <tableColumn id="2" name="著者名"/>
-    <tableColumn id="3" name="出版日" dataDxfId="1"/>
-    <tableColumn id="4" name="価格" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="書籍名"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="著者名"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="出版日" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="価格" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1020,14 +1041,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="11.296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1050,10 +1074,10 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>44630</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
         <v>1584</v>
       </c>
     </row>
@@ -1064,10 +1088,10 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>44512</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
         <v>4290</v>
       </c>
     </row>
@@ -1078,10 +1102,10 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
-        <v>44392</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
         <v>1870</v>
       </c>
     </row>

--- a/PowerAutomate_Flow/ConvertExcelTableIntoCrearCollectStatement/書籍一覧.xlsx
+++ b/PowerAutomate_Flow/ConvertExcelTableIntoCrearCollectStatement/書籍一覧.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25525"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\深井　亘\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B63A00-F378-420F-828D-8AF1461B2B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{32B63A00-F378-420F-828D-8AF1461B2B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2434CA37-3A17-49AE-BD24-96B29ED015B5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="書籍一覧" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>書籍名</t>
   </si>
@@ -57,21 +57,12 @@
   <si>
     <t>数学ガールの物理ノート／ニュートン力学</t>
   </si>
-  <si>
-    <t>2022/03/10</t>
-  </si>
-  <si>
-    <t>2021/11/12</t>
-  </si>
-  <si>
-    <t>2021/07/15</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +222,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,8 +410,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -528,6 +538,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -657,14 +695,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,24 +742,21 @@
     <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -738,15 +779,15 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="書籍名"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="著者名"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="出版日" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="価格" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="出版日"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="価格" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1045,15 +1086,18 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,43 +1111,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="18.75">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+      <c r="C2" s="2">
+        <v>44630</v>
       </c>
       <c r="D2" s="1">
         <v>1584</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
+      <c r="C3" s="3">
+        <v>44512</v>
       </c>
       <c r="D3" s="1">
         <v>4290</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="18.75">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
+      <c r="C4" s="4">
+        <v>44757</v>
       </c>
       <c r="D4" s="1">
         <v>1870</v>
